--- a/Datos/Database by set/Set with text box/Xlsx sets/Alara Reborn Promos (PARB).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Alara Reborn Promos (PARB).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,77 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dragon Broodmother</t>
+          <t>('Dragon Broodmother', ['{2}{R}{R}{R}{G}', 'Creature — Dragon', 'Flying', 'At the beginning of each upkeep, create a 1/1 red and green Dragon creature token with flying and devour 2. (As the token enters the battlefield, you may sacrifice any number of creatures. It enters the battlefield with twice that many +1/+1 counters on it.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{R}{R}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>At the beginning of each upkeep, create a 1/1 red and green Dragon creature token with flying and devour 2. (As the token enters the battlefield, you may sacrifice any number of creatures. It enters the battlefield with twice that many +1/+1 counters on it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Knight of New Alara</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{2}{G}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Creature — Human Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Each other multicolored creature you control gets +1/+1 for each of its colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Knight of New Alara', ['{2}{G}{W}', 'Creature — Human Knight', 'Each other multicolored creature you control gets +1/+1 for each of its colors.', '2/2'])</t>
         </is>
       </c>
     </row>
